--- a/fastapi-app/templates/e-pcs-control-item-form-template.xlsx
+++ b/fastapi-app/templates/e-pcs-control-item-form-template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DX\04_e-Lot Production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\inspiretale\work\denso\denso-e-PCS-Control-item-form\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C497BB-2D19-41C7-AFEF-145F74FD9824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="3120" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">        Confidential</t>
   </si>
@@ -116,9 +117,6 @@
   </si>
   <si>
     <t>DENSO (THAILAND) CO.,LTD.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    Issue to   £  Insp.   £   Prod.(___________)</t>
   </si>
   <si>
     <t>FM8.3.2-PE-03B (22.09R) A4</t>
@@ -130,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -461,7 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -656,6 +654,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,35 +708,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 3 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,7 +744,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 3"/>
+        <xdr:cNvPr id="11" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1077,30 +1078,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:O68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="3.44140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" style="11" customWidth="1"/>
-    <col min="5" max="6" width="6.109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="11" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="11" customWidth="1"/>
-    <col min="13" max="15" width="9.5546875" style="11" customWidth="1"/>
-    <col min="16" max="23" width="8.33203125" style="11" customWidth="1"/>
-    <col min="24" max="24" width="7.88671875" style="11" customWidth="1"/>
-    <col min="25" max="28" width="8.33203125" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="8.33203125" style="11"/>
+    <col min="1" max="2" width="3.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="6.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="11" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11" customWidth="1"/>
+    <col min="13" max="15" width="9.5703125" style="11" customWidth="1"/>
+    <col min="16" max="23" width="8.28515625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" style="11" customWidth="1"/>
+    <col min="25" max="28" width="8.28515625" style="11" customWidth="1"/>
+    <col min="29" max="16384" width="8.28515625" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="22.5" customHeight="1">
@@ -1122,16 +1123,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="67" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="73" t="s">
+    <row r="3" spans="1:15" s="67" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="69"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
@@ -1145,21 +1146,21 @@
       </c>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15" s="67" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="79" t="s">
+    <row r="4" spans="1:15" s="67" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1168,19 +1169,19 @@
       </c>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:15" s="67" customFormat="1" ht="18.899999999999999" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="71"/>
+    <row r="5" spans="1:15" s="67" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A5" s="85"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="78"/>
       <c r="M5" s="18"/>
       <c r="N5" s="16" t="s">
         <v>9</v>
@@ -1205,18 +1206,18 @@
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" s="67" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="84"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="71"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="10"/>
       <c r="N7" s="22"/>
       <c r="O7" s="23"/>
@@ -1250,32 +1251,32 @@
       <c r="E9" s="61"/>
       <c r="F9" s="61"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="71"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="78"/>
     </row>
     <row r="10" spans="1:15" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="69"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="83"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="26" t="s">
         <v>20</v>
       </c>
@@ -1284,27 +1285,27 @@
       <c r="L10" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="69"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="65" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="28"/>
       <c r="D11" s="58"/>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="71"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="57" t="s">
         <v>26</v>
       </c>
@@ -1346,8 +1347,8 @@
       <c r="C13" s="32"/>
       <c r="D13" s="42"/>
       <c r="E13" s="63"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="40"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
@@ -1362,9 +1363,9 @@
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="40"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
@@ -1379,13 +1380,13 @@
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="42"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="88"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
       <c r="L15" s="46"/>
       <c r="M15" s="52"/>
       <c r="N15" s="53"/>
@@ -1394,19 +1395,19 @@
     <row r="16" spans="1:15" s="67" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
     </row>
     <row r="17" spans="1:15" s="67" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="18"/>
@@ -2194,16 +2195,14 @@
       <c r="A63" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G63" s="59" t="s">
+      <c r="G63" s="59"/>
+      <c r="O63" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="O63" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1">
       <c r="A64" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="15:15" ht="12.75" customHeight="1">
